--- a/data/cameralist.xlsx
+++ b/data/cameralist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rja/Documents/Coding/film-photo-archive-manager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BF11B9-51EC-5543-9986-E162D2D82886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FAD9D-DBAB-8544-983E-BD47C73AE3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="760" windowWidth="14700" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -170,6 +170,30 @@
   </si>
   <si>
     <t>Hasselblad 2000FC</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>F3S</t>
+  </si>
+  <si>
+    <t>F3'</t>
+  </si>
+  <si>
+    <t>500SI</t>
+  </si>
+  <si>
+    <t>MAX7000</t>
+  </si>
+  <si>
+    <t>NIKOMAT</t>
+  </si>
+  <si>
+    <t>ACCZOOM</t>
+  </si>
+  <si>
+    <t>X700S</t>
   </si>
 </sst>
 </file>
@@ -519,459 +543,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <v>135</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>135</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>135</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>135</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>135</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>135</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>135</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>135</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>135</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>135</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
         <v>120</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>135</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>135</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>135</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>135</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>135</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>135</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>135</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>135</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>135</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>135</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>135</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>135</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>135</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>135</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
         <v>120</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <v>135</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>135</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>135</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>135</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
         <v>120</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>135</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>135</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>135</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>135</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1">
-        <v>135</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="1">
+        <v>135</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1">
-        <v>135</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="1">
+        <v>135</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="1">
-        <v>135</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="1">
+        <v>135</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="1">
-        <v>135</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="1">
+        <v>135</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
         <v>120</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/cameralist.xlsx
+++ b/data/cameralist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rja/Documents/Coding/film-photo-archive-manager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6FAD9D-DBAB-8544-983E-BD47C73AE3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7743D-F004-6245-A605-3117AE474A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="760" windowWidth="14700" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/cameralist.xlsx
+++ b/data/cameralist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rja/Documents/Coding/film-photo-archive-manager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7743D-F004-6245-A605-3117AE474A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BA94B7-D16C-8B4C-BB1A-34CC82D99C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="760" windowWidth="14700" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1074,6 +1074,46 @@
         <v>15</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>135</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1">
+        <v>120</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
